--- a/biology/Zoologie/Hylaea_fasciaria/Hylaea_fasciaria.xlsx
+++ b/biology/Zoologie/Hylaea_fasciaria/Hylaea_fasciaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylaea fasciaria, la Métrocampe verte ou Bilieuse, est une espèce de lépidoptères (papillons) de la famille des Geometridae, de la sous-famille des Ennominae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon vit en Europe centrale et septentrionale, dans l'Oural, dans le Caucase, dans l'Altaï et en Sibérie orientale.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte a une envergure de 27 à 40 mm. Il peut prendre deux formes de coloration différente : la forme typique (fasciaria) a un fond rose, la forme prasinaria a des ailes de couleur verte. On peut rencontrer des formes individuelles présentant le mélange des deux colorations.
 </t>
@@ -573,11 +589,13 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En France, elle est largement répartie de la plaine à la montagne. Elle fréquente les forêts de conifères.
 Le papillon vient à la lumière, mais peut aussi se rencontrer de jour.
-L'espèce est bivoltine (avril-mai et août-septembre), sauf en montagne où elle ne vole qu’en juillet[1].
+L'espèce est bivoltine (avril-mai et août-septembre), sauf en montagne où elle ne vole qu’en juillet.
 Sa larve se nourrit de conifères :
 Abies - Sapin
 Picea - Épicéa
